--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EEBBBC-E31B-41FD-A0DA-2052FBC08DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9323499-E8E7-435E-8084-839F4E12B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">MTC!$A$1:$R$42</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -709,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -818,507 +817,490 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3118,8 +3100,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,76 +3120,76 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" spans="2:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="111"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="114"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="139"/>
     </row>
     <row r="6" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -3224,40 +3206,40 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="123" t="s">
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="124"/>
-      <c r="M7" s="125"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="142"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="2:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3274,71 +3256,72 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="77" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="77" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="55" t="s">
+      <c r="L10" s="65"/>
+      <c r="M10" s="66"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="59"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="131"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="60"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="97"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3355,73 +3338,73 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="77" t="s">
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="77" t="s">
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="103" t="s">
+      <c r="K16" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="106"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="127"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3438,61 +3421,61 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="91" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="69" t="s">
+      <c r="H20" s="98"/>
+      <c r="I20" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="77" t="s">
+      <c r="J20" s="66"/>
+      <c r="K20" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="78" t="s">
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89" t="s">
+      <c r="H22" s="94"/>
+      <c r="I22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="90"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="83"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
     </row>
     <row r="23" spans="2:13" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -3509,56 +3492,56 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="77" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="77" t="s">
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="83"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -3575,184 +3558,184 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="77" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="77" t="s">
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="69" t="s">
+      <c r="H29" s="206"/>
+      <c r="I29" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="70"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="71" t="s">
+      <c r="L29" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="72"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="110"/>
       <c r="G30" s="14">
         <v>2</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="70"/>
+      <c r="J30" s="66"/>
       <c r="K30" s="14">
         <v>2</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="72"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="14">
         <v>3</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="69" t="s">
+      <c r="I31" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="70"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="14">
         <v>3</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="72"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
       <c r="G32" s="14">
         <v>4</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="70"/>
+      <c r="J32" s="66"/>
       <c r="K32" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="72"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="69" t="s">
+      <c r="I33" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="70"/>
+      <c r="J33" s="66"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="71"/>
-      <c r="M33" s="72"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="76"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
@@ -3773,6 +3756,9 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G25:I26"/>
     <mergeCell ref="K21:M22"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="D4:J4"/>
@@ -3783,14 +3769,14 @@
     <mergeCell ref="G16:I17"/>
     <mergeCell ref="K16:M17"/>
     <mergeCell ref="G11:I12"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B11:F12"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="I20:J21"/>
     <mergeCell ref="A35:M35"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="C33:F33"/>
@@ -3803,15 +3789,12 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G25:I26"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B11:D12"/>
     <mergeCell ref="K11:M12"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="B25:E26"/>
@@ -3825,7 +3808,7 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{A1054A57-02A8-48E7-A2F7-37E5877CF9AC}"/>
@@ -3840,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6DE1E-C4D7-4581-B13B-2767FFCE0CBB}">
   <dimension ref="C1:O36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:N6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,67 +3849,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="135"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="138"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="158"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="141"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -3949,53 +3932,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="126" t="s">
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="128"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="144"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="207" t="s">
+      <c r="D10" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4027,79 +4010,79 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="129" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="177"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="166" t="s">
+      <c r="O14" s="56" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="163" t="s">
+      <c r="D15" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="161" t="s">
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="160">
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="172">
         <v>10398004506</v>
       </c>
-      <c r="O15" s="167"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="160"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="172"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="162" t="s">
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="149"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="146"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="144" t="s">
+      <c r="O17" s="53" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4110,33 +4093,33 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="114"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="47"/>
-      <c r="O18" s="145" t="s">
+      <c r="O18" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="132" t="s">
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="113"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
       <c r="O19" s="51" t="s">
         <v>44</v>
       </c>
@@ -4158,32 +4141,32 @@
     </row>
     <row r="21" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C21" s="24"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="169"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="179"/>
       <c r="O21" s="49"/>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="169"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="179"/>
       <c r="O22" s="49"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4199,24 +4182,24 @@
     </row>
     <row r="24" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="37"/>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="132" t="s">
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="129" t="s">
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="131"/>
+      <c r="O24" s="177"/>
     </row>
     <row r="25" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
@@ -4233,116 +4216,116 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="186" t="s">
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="172"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="185" t="s">
+      <c r="G26" s="185"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="184" t="s">
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="173"/>
+      <c r="O26" s="181"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="27"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="174"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="183"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="126" t="s">
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="127" t="s">
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="128"/>
+      <c r="O28" s="144"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="194" t="s">
+      <c r="D29" s="64"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="203" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="3:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="40"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="200"/>
-      <c r="M30" s="201"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="152"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="159" t="s">
+      <c r="D31" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="149"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="146"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
       <c r="F32" s="188" t="s">
         <v>51</v>
       </c>
@@ -4358,22 +4341,22 @@
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="127" t="s">
+      <c r="D33" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="126" t="s">
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="127"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="187" t="s">
+      <c r="M33" s="143"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4390,43 +4373,43 @@
       <c r="L34" s="190"/>
       <c r="M34" s="188"/>
       <c r="N34" s="189"/>
-      <c r="O34" s="191" t="s">
+      <c r="O34" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="179" t="s">
+      <c r="C35" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="179"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="179" t="s">
+      <c r="C36" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
-      <c r="K36" s="179"/>
-      <c r="L36" s="179"/>
-      <c r="M36" s="179"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="179"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -4443,6 +4426,8 @@
     <mergeCell ref="D26:E27"/>
     <mergeCell ref="J26:M27"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:O24"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="C3:O5"/>
     <mergeCell ref="D9:H9"/>
@@ -4458,8 +4443,6 @@
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:O24"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="D33:K33"/>
     <mergeCell ref="L33:N33"/>
@@ -4483,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:P11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,716 +4486,659 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="135"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="138"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="141"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="161"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="192"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="193"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="181"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="195"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="182"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="197"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="128"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="144"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="214" t="s">
+      <c r="C9" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="218"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="199"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="218"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="199"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="201"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="113"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="119"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="206" t="s">
+      <c r="C13" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="206"/>
-      <c r="O13" s="206"/>
-      <c r="P13" s="218"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="199"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="206"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="206"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="218"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="199"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="220"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="201"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="77" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="77" t="s">
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="179"/>
-      <c r="P16" s="70"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
+      <c r="G17" s="5"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="198"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="216"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="146"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="198"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="216"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="146"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="198"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="217"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="148"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="205"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="77" t="s">
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="148"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="205"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="148"/>
+      <c r="G22" s="5"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="205"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="158">
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="204">
         <v>10398004506</v>
       </c>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="148"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="205"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="148"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="205"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="106"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="127"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="132" t="s">
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="132" t="s">
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="112"/>
-      <c r="P26" s="113"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="119"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
+      <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="149"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="146"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="149"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="146"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="114"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="120"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="132" t="s">
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="132" t="s">
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="112"/>
-      <c r="P30" s="113"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="119"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
+      <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="158" t="s">
+      <c r="N31" s="204" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="159"/>
-      <c r="P31" s="149"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="146"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="159"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="149"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="149"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="146"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="114"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="120"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="179" t="s">
+      <c r="C34" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="132" t="s">
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="132" t="s">
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="112"/>
-      <c r="P34" s="113"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="119"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="158" t="s">
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="159"/>
-      <c r="P35" s="149"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="146"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="114"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="198"/>
-      <c r="O37" s="198"/>
-      <c r="P37" s="198"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="120"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="179" t="s">
+      <c r="C38" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="179"/>
-      <c r="L38" s="179"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="223"/>
-      <c r="L39" s="223"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="223"/>
-      <c r="P39" s="223"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -5221,15 +5147,21 @@
     <mergeCell ref="N20:P25"/>
     <mergeCell ref="C38:P38"/>
     <mergeCell ref="C40:P40"/>
-    <mergeCell ref="D9:P11"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H28:M29"/>
+    <mergeCell ref="H32:M33"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="H21:M21"/>
     <mergeCell ref="E32:G33"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="C18:G20"/>
     <mergeCell ref="H18:M20"/>
     <mergeCell ref="N27:P29"/>
     <mergeCell ref="N31:P33"/>
-    <mergeCell ref="N35:P36"/>
     <mergeCell ref="C23:G25"/>
     <mergeCell ref="H23:M25"/>
     <mergeCell ref="C26:G26"/>
@@ -5238,22 +5170,16 @@
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H28:M29"/>
-    <mergeCell ref="H32:M33"/>
-    <mergeCell ref="C12:P12"/>
-    <mergeCell ref="C13:P15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="D9:P11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="C2:P4"/>
     <mergeCell ref="C5:P7"/>
     <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="C13:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>

--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9323499-E8E7-435E-8084-839F4E12B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8CA89-EA51-486C-A3BA-A812B9B7928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#."/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +521,13 @@
     <font>
       <b/>
       <sz val="32"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -852,39 +859,186 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -897,36 +1051,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,9 +1063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -969,138 +1090,141 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1116,119 +1240,47 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,56 +1303,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3120,76 +3127,76 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="135"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="119"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="2:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="139"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -3206,40 +3213,40 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="140" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="142"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="2:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3256,72 +3263,72 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="104" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="104" t="s">
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="70" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="124"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="141"/>
     </row>
     <row r="14" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3338,73 +3345,73 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="104" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="104" t="s">
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="121" t="s">
+      <c r="G16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="124" t="s">
+      <c r="K16" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="127"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3421,61 +3428,61 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="97" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="65" t="s">
+      <c r="H20" s="136"/>
+      <c r="I20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="104" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="84" t="s">
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95" t="s">
+      <c r="H22" s="101"/>
+      <c r="I22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="96"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="2:13" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -3492,56 +3499,56 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="104" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="104" t="s">
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="84" t="s">
+      <c r="K25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -3558,184 +3565,184 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="104" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="104" t="s">
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="66"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
-      <c r="H29" s="206"/>
-      <c r="I29" s="65" t="s">
+      <c r="H29" s="65"/>
+      <c r="I29" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="66"/>
+      <c r="J29" s="76"/>
       <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="109" t="s">
+      <c r="L29" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="110"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="14">
         <v>2</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="66"/>
+      <c r="J30" s="76"/>
       <c r="K30" s="14">
         <v>2</v>
       </c>
-      <c r="L30" s="109"/>
-      <c r="M30" s="110"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="14">
         <v>3</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="66"/>
+      <c r="J31" s="76"/>
       <c r="K31" s="14">
         <v>3</v>
       </c>
-      <c r="L31" s="109"/>
-      <c r="M31" s="110"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="14">
         <v>4</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="66"/>
+      <c r="J32" s="76"/>
       <c r="K32" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="109"/>
-      <c r="M32" s="110"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="83"/>
     </row>
     <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="66"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="109"/>
-      <c r="M33" s="110"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="83"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
@@ -3747,15 +3754,43 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G25:I26"/>
@@ -3772,43 +3807,15 @@
     <mergeCell ref="I20:J21"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:F12"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K25:M26"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{A1054A57-02A8-48E7-A2F7-37E5877CF9AC}"/>
@@ -3823,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6DE1E-C4D7-4581-B13B-2767FFCE0CBB}">
   <dimension ref="C1:O36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:E32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,67 +3856,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="166"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="158"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="169"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="172"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -3932,53 +3939,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145" t="s">
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="144"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="173"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4010,20 +4017,20 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="176" t="s">
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="177"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="162"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
       </c>
@@ -4033,54 +4040,54 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="165" t="s">
+      <c r="D15" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="147" t="s">
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="172">
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="184">
         <v>10398004506</v>
       </c>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="172"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="184"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="171" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="146"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="183"/>
       <c r="N17" s="46"/>
       <c r="O17" s="53" t="s">
         <v>47</v>
@@ -4093,11 +4100,11 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="120"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
       <c r="N18" s="47"/>
       <c r="O18" s="54" t="s">
         <v>36</v>
@@ -4105,21 +4112,21 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="178" t="s">
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
       <c r="O19" s="51" t="s">
         <v>44</v>
       </c>
@@ -4141,32 +4148,32 @@
     </row>
     <row r="21" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C21" s="24"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="179"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="149"/>
       <c r="O21" s="49"/>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="179"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="149"/>
       <c r="O22" s="49"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4182,24 +4189,24 @@
     </row>
     <row r="24" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="37"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="178" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="176" t="s">
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="177"/>
+      <c r="O24" s="162"/>
     </row>
     <row r="25" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
@@ -4216,60 +4223,60 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="184" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="185"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="186" t="s">
+      <c r="G26" s="156"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="185"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="180" t="s">
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="181"/>
+      <c r="O26" s="152"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="27"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="183"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="154"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="145" t="s">
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="143" t="s">
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="144"/>
+      <c r="O28" s="173"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
@@ -4280,11 +4287,11 @@
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="149"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="188"/>
       <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
@@ -4297,137 +4304,131 @@
       <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="152"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="191"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="146"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="183"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="188" t="s">
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="188"/>
-      <c r="O32" s="189"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="145"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="143" t="s">
+      <c r="D33" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="145" t="s">
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="143"/>
-      <c r="N33" s="144"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="173"/>
       <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C34" s="6"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="189"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
       <c r="O34" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="C3:O5"/>
     <mergeCell ref="D9:H9"/>
@@ -4443,15 +4444,21 @@
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:O32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O18" r:id="rId1" xr:uid="{A2E91466-F0FC-43F6-8FAF-6E85CC0BF087}"/>
@@ -4466,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18:M20"/>
     </sheetView>
   </sheetViews>
@@ -4486,276 +4493,276 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="161"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="193"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="208"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="195"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="210"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="197"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="212"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="144"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="173"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="202" t="s">
+      <c r="C9" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="199"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="201"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="199"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="201"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="201"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="203"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="119"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="199"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="201"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="199"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="201"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="201"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="203"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="104" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="104" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
     </row>
     <row r="17" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -4765,346 +4772,346 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="146"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="183"/>
       <c r="N18" s="4"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="146"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="183"/>
       <c r="N19" s="4"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="205"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="192"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="104" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="205"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="192"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="205"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="192"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="204">
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="197">
         <v>10398004506</v>
       </c>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="205"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="192"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="205"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="192"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="127"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="110"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="178" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="178" t="s">
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="118"/>
-      <c r="P26" s="119"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="146"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="183"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="146"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="183"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="120"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="178" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="178" t="s">
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="118"/>
-      <c r="P30" s="119"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="204" t="s">
+      <c r="N31" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="146"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="183"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="107" t="s">
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="107"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="146"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="197"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="183"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="120"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="178" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="178" t="s">
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="118"/>
-      <c r="P34" s="119"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="100"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="211"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="204" t="s">
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="192"/>
+      <c r="N35" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="107"/>
-      <c r="P35" s="146"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="183"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="120"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="52"/>
@@ -5123,25 +5130,47 @@
       <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C2:P4"/>
+    <mergeCell ref="C5:P7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="C13:P15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D9:P11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H18:M20"/>
+    <mergeCell ref="N27:P29"/>
+    <mergeCell ref="N31:P33"/>
+    <mergeCell ref="C23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
     <mergeCell ref="H35:M36"/>
     <mergeCell ref="C35:G36"/>
     <mergeCell ref="N20:P25"/>
@@ -5158,28 +5187,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="E32:G33"/>
     <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H18:M20"/>
-    <mergeCell ref="N27:P29"/>
-    <mergeCell ref="N31:P33"/>
-    <mergeCell ref="C23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D9:P11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C2:P4"/>
-    <mergeCell ref="C5:P7"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C12:P12"/>
-    <mergeCell ref="C13:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>

--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8CA89-EA51-486C-A3BA-A812B9B7928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F606DC03-3BCD-4085-9CFE-97D1E3EE598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Wild Capture Fishery (Complete Section 2)</t>
   </si>
@@ -370,15 +370,22 @@
   <si>
     <t>*Note: A Lot Identifier is generated by the shipper based on its cargo tracking and record-keeping protocols.</t>
   </si>
+  <si>
+    <t>THUNNUS ALBACARE</t>
+  </si>
+  <si>
+    <t>YFT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#."/>
+    <numFmt numFmtId="165" formatCode="000\ 0000\ 0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +535,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -715,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1108,117 +1123,132 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1231,15 +1261,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1303,10 +1324,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3107,8 +3149,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,7 +3630,9 @@
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="D29" s="82"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
@@ -3830,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6DE1E-C4D7-4581-B13B-2767FFCE0CBB}">
   <dimension ref="C1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,7 +3892,7 @@
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" customWidth="1"/>
     <col min="14" max="14" width="45.5703125" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" customWidth="1"/>
+    <col min="15" max="15" width="35.42578125" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
@@ -3856,67 +3900,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="167"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="169"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="170"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="170"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="173"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -3939,53 +3983,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="186" t="s">
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="173"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="174"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="185" t="s">
+      <c r="D10" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4017,19 +4061,19 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="177"/>
       <c r="I14" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
       <c r="M14" s="162"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
@@ -4040,54 +4084,54 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="148" t="s">
+      <c r="D15" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="179" t="s">
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="184">
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="187">
         <v>10398004506</v>
       </c>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="184"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="187"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="150" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="185" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="120"/>
       <c r="K17" s="120"/>
       <c r="L17" s="120"/>
-      <c r="M17" s="183"/>
+      <c r="M17" s="186"/>
       <c r="N17" s="46"/>
       <c r="O17" s="53" t="s">
         <v>47</v>
@@ -4159,7 +4203,9 @@
       <c r="L21" s="148"/>
       <c r="M21" s="148"/>
       <c r="N21" s="149"/>
-      <c r="O21" s="49"/>
+      <c r="O21" s="163">
+        <v>1750102610</v>
+      </c>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
@@ -4174,7 +4220,7 @@
       <c r="L22" s="148"/>
       <c r="M22" s="148"/>
       <c r="N22" s="149"/>
-      <c r="O22" s="49"/>
+      <c r="O22" s="163"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
@@ -4259,24 +4305,24 @@
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="163" t="s">
+      <c r="D28" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="186" t="s">
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="163" t="s">
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="173"/>
+      <c r="O28" s="174"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
@@ -4287,11 +4333,11 @@
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="188"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="193"/>
       <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
@@ -4304,11 +4350,11 @@
       <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="191"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="217"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
@@ -4327,7 +4373,7 @@
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
       <c r="N31" s="120"/>
-      <c r="O31" s="183"/>
+      <c r="O31" s="186"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
@@ -4348,21 +4394,21 @@
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="163" t="s">
+      <c r="D33" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="186" t="s">
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="163"/>
-      <c r="N33" s="173"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="174"/>
       <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
@@ -4419,7 +4465,7 @@
       <c r="O36" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="D33:K33"/>
     <mergeCell ref="L33:N33"/>
@@ -4453,6 +4499,7 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I24:M24"/>
     <mergeCell ref="N24:O24"/>
+    <mergeCell ref="O21:O22"/>
     <mergeCell ref="C35:O35"/>
     <mergeCell ref="C36:O36"/>
     <mergeCell ref="D34:K34"/>
@@ -4473,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:M20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,181 +4540,181 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="173"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="208"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="209"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="210"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="210"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="212"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="212"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="214"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="173"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="174"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="204" t="s">
+      <c r="C9" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="203"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="201"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="203"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="203"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="205"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -4690,56 +4737,56 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="200" t="s">
+      <c r="C13" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="203"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="201"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="203"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="203"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="205"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -4776,13 +4823,13 @@
       <c r="D18" s="120"/>
       <c r="E18" s="120"/>
       <c r="F18" s="120"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="197"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="120"/>
       <c r="J18" s="120"/>
       <c r="K18" s="120"/>
       <c r="L18" s="120"/>
-      <c r="M18" s="183"/>
+      <c r="M18" s="186"/>
       <c r="N18" s="4"/>
       <c r="P18" s="5"/>
     </row>
@@ -4792,13 +4839,13 @@
       <c r="D19" s="120"/>
       <c r="E19" s="120"/>
       <c r="F19" s="120"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="197"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="199"/>
       <c r="I19" s="120"/>
       <c r="J19" s="120"/>
       <c r="K19" s="120"/>
       <c r="L19" s="120"/>
-      <c r="M19" s="183"/>
+      <c r="M19" s="186"/>
       <c r="N19" s="4"/>
       <c r="P19" s="5"/>
     </row>
@@ -4817,7 +4864,7 @@
       <c r="M20" s="102"/>
       <c r="N20" s="103"/>
       <c r="O20" s="104"/>
-      <c r="P20" s="192"/>
+      <c r="P20" s="194"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -4838,14 +4885,14 @@
       <c r="M21" s="76"/>
       <c r="N21" s="103"/>
       <c r="O21" s="104"/>
-      <c r="P21" s="192"/>
+      <c r="P21" s="194"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="G22" s="5"/>
       <c r="N22" s="103"/>
       <c r="O22" s="104"/>
-      <c r="P22" s="192"/>
+      <c r="P22" s="194"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -4855,18 +4902,18 @@
       <c r="D23" s="120"/>
       <c r="E23" s="120"/>
       <c r="F23" s="120"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="197">
+      <c r="G23" s="186"/>
+      <c r="H23" s="199">
         <v>10398004506</v>
       </c>
       <c r="I23" s="120"/>
       <c r="J23" s="120"/>
       <c r="K23" s="120"/>
       <c r="L23" s="120"/>
-      <c r="M23" s="183"/>
+      <c r="M23" s="186"/>
       <c r="N23" s="103"/>
       <c r="O23" s="104"/>
-      <c r="P23" s="192"/>
+      <c r="P23" s="194"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -4874,16 +4921,16 @@
       <c r="D24" s="120"/>
       <c r="E24" s="120"/>
       <c r="F24" s="120"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="197"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="199"/>
       <c r="I24" s="120"/>
       <c r="J24" s="120"/>
       <c r="K24" s="120"/>
       <c r="L24" s="120"/>
-      <c r="M24" s="183"/>
+      <c r="M24" s="186"/>
       <c r="N24" s="103"/>
       <c r="O24" s="104"/>
-      <c r="P24" s="192"/>
+      <c r="P24" s="194"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
@@ -4929,26 +4976,30 @@
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="197"/>
+      <c r="N27" s="199">
+        <v>1750102610</v>
+      </c>
       <c r="O27" s="120"/>
-      <c r="P27" s="183"/>
+      <c r="P27" s="186"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="120"/>
+      <c r="C28" s="120" t="s">
+        <v>87</v>
+      </c>
       <c r="D28" s="120"/>
       <c r="E28" s="120"/>
       <c r="F28" s="120"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="197"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="199"/>
       <c r="I28" s="120"/>
       <c r="J28" s="120"/>
       <c r="K28" s="120"/>
       <c r="L28" s="120"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="197"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="199"/>
       <c r="O28" s="120"/>
-      <c r="P28" s="183"/>
+      <c r="P28" s="186"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
@@ -4994,44 +5045,44 @@
       <c r="B31" s="4"/>
       <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="197" t="s">
+      <c r="N31" s="199" t="s">
         <v>80</v>
       </c>
       <c r="O31" s="120"/>
-      <c r="P31" s="183"/>
+      <c r="P31" s="186"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="200"/>
       <c r="E32" s="120" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="120"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="197"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="219"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="199"/>
       <c r="O32" s="120"/>
-      <c r="P32" s="183"/>
+      <c r="P32" s="186"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
       <c r="E33" s="101"/>
       <c r="F33" s="101"/>
       <c r="G33" s="102"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="102"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="222"/>
+      <c r="L33" s="222"/>
+      <c r="M33" s="223"/>
       <c r="N33" s="132"/>
       <c r="O33" s="101"/>
       <c r="P33" s="102"/>
@@ -5061,30 +5112,30 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="194"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="196"/>
       <c r="H35" s="103"/>
       <c r="I35" s="104"/>
       <c r="J35" s="104"/>
       <c r="K35" s="104"/>
       <c r="L35" s="104"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="197" t="s">
+      <c r="M35" s="194"/>
+      <c r="N35" s="199" t="s">
         <v>65</v>
       </c>
       <c r="O35" s="120"/>
-      <c r="P35" s="183"/>
+      <c r="P35" s="186"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="196"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="198"/>
       <c r="H36" s="105"/>
       <c r="I36" s="106"/>
       <c r="J36" s="106"/>

--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F606DC03-3BCD-4085-9CFE-97D1E3EE598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D500C35-3DE6-4556-B41F-518AD9998D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Wild Capture Fishery (Complete Section 2)</t>
   </si>
@@ -877,6 +877,207 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,215 +1102,161 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1123,143 +1270,47 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1276,7 +1327,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1284,72 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3169,76 +3169,76 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="100"/>
+      <c r="M3" s="118"/>
     </row>
     <row r="4" spans="2:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="140"/>
     </row>
     <row r="6" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -3255,40 +3255,40 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="77" t="s">
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="81"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="143"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="139"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3305,72 +3305,72 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="74" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="74" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="111" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="124"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="141"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="104"/>
     </row>
     <row r="14" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3387,73 +3387,73 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="74" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="74" t="s">
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="107" t="s">
+      <c r="K16" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="125"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="110"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="126"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3470,61 +3470,61 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="135" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="75" t="s">
+      <c r="H20" s="99"/>
+      <c r="I20" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="74" t="s">
+      <c r="J20" s="67"/>
+      <c r="K20" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="88" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
     </row>
     <row r="22" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="132" t="s">
+      <c r="G22" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="101"/>
-      <c r="I22" s="133" t="s">
+      <c r="H22" s="95"/>
+      <c r="I22" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="134"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
     </row>
     <row r="23" spans="2:13" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -3541,56 +3541,56 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="74" t="s">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="74" t="s">
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="88" t="s">
+      <c r="K25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="93"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -3607,186 +3607,186 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="74" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="74" t="s">
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
     </row>
     <row r="29" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
       <c r="H29" s="65"/>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="76"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="83"/>
+      <c r="M29" s="109"/>
     </row>
     <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="14">
         <v>2</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="76"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="14">
         <v>2</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="83"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
     </row>
     <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="14">
         <v>3</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="76"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="14">
         <v>3</v>
       </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="83"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="109"/>
     </row>
     <row r="32" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="14">
         <v>4</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="76"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="82"/>
-      <c r="M32" s="83"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
     </row>
     <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="76"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="83"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="109"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="113"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
@@ -3798,6 +3798,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G25:I26"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K11:M12"/>
@@ -3814,52 +3860,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{A1054A57-02A8-48E7-A2F7-37E5877CF9AC}"/>
@@ -3874,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6DE1E-C4D7-4581-B13B-2767FFCE0CBB}">
   <dimension ref="C1:O36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:M30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,67 +3900,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="167"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="170"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="159"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="173"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="162"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -3983,53 +3983,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="191" t="s">
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="174"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="145"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4061,20 +4061,20 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="175" t="s">
+      <c r="D14" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="161" t="s">
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="162"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="178"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
       </c>
@@ -4084,54 +4084,54 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="181" t="s">
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="187">
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="173">
         <v>10398004506</v>
       </c>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="187"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="173"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="185" t="s">
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="186"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="147"/>
       <c r="N17" s="46"/>
       <c r="O17" s="53" t="s">
         <v>47</v>
@@ -4144,11 +4144,11 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="47"/>
       <c r="O18" s="54" t="s">
         <v>36</v>
@@ -4156,21 +4156,21 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="160" t="s">
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
       <c r="O19" s="51" t="s">
         <v>44</v>
       </c>
@@ -4192,35 +4192,37 @@
     </row>
     <row r="21" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C21" s="24"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="163">
+      <c r="D21" s="180" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="192">
         <v>1750102610</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="163"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="192"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
@@ -4235,24 +4237,24 @@
     </row>
     <row r="24" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="37"/>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="160" t="s">
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="161" t="s">
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="162"/>
+      <c r="O24" s="178"/>
     </row>
     <row r="25" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
@@ -4269,60 +4271,60 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="155" t="s">
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="156"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="158" t="s">
+      <c r="G26" s="188"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="151" t="s">
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="152"/>
+      <c r="O26" s="184"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="27"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="154"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="186"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="164" t="s">
+      <c r="D28" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="191" t="s">
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="164" t="s">
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="174"/>
+      <c r="O28" s="145"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
@@ -4333,11 +4335,11 @@
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="193"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="150"/>
       <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
@@ -4350,131 +4352,138 @@
       <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
-      <c r="L30" s="216"/>
-      <c r="M30" s="217"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="153"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="186"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="147"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="144" t="s">
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="145"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="194"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="164" t="s">
+      <c r="D33" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="191" t="s">
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="164"/>
-      <c r="N33" s="174"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="145"/>
       <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C34" s="6"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="145"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="194"/>
       <c r="O34" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:O32"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="O21:O22"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="C3:O5"/>
     <mergeCell ref="D9:H9"/>
@@ -4490,22 +4499,15 @@
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:O32"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O18" r:id="rId1" xr:uid="{A2E91466-F0FC-43F6-8FAF-6E85CC0BF087}"/>
@@ -4520,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:M33"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,276 +4542,276 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="173"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="199"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="212"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="201"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="213"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="214"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="203"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="174"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="145"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="203"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="205"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="203"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="205"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="205"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="207"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="118"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="202" t="s">
+      <c r="C13" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="203"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="205"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="203"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="205"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="205"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="206"/>
+      <c r="P15" s="207"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="74" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="74" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -4819,350 +4821,350 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="186"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="147"/>
       <c r="N18" s="4"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="186"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="147"/>
       <c r="N19" s="4"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="194"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="211"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="74" t="s">
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="194"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="211"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="194"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="211"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="199">
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="210">
         <v>10398004506</v>
       </c>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="194"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="211"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="194"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="211"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="110"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="126"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="160" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="160" t="s">
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="118"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="199">
+      <c r="N27" s="210">
         <v>1750102610</v>
       </c>
-      <c r="O27" s="120"/>
-      <c r="P27" s="186"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="147"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="186"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="147"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="119"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="160" t="s">
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="160" t="s">
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="118"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="199" t="s">
+      <c r="N31" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="120"/>
-      <c r="P31" s="186"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="147"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="120" t="s">
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="199"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="186"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="210"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="147"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
-      <c r="K33" s="222"/>
-      <c r="L33" s="222"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="102"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="119"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="160" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="160" t="s">
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="99"/>
-      <c r="P34" s="100"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="118"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="194"/>
-      <c r="N35" s="199" t="s">
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="120"/>
-      <c r="P35" s="186"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="147"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="119"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="52"/>
@@ -5181,47 +5183,25 @@
       <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="142"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
-      <c r="O40" s="142"/>
-      <c r="P40" s="142"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C2:P4"/>
-    <mergeCell ref="C5:P7"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C12:P12"/>
-    <mergeCell ref="C13:P15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D9:P11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H18:M20"/>
-    <mergeCell ref="N27:P29"/>
-    <mergeCell ref="N31:P33"/>
-    <mergeCell ref="C23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
     <mergeCell ref="H35:M36"/>
     <mergeCell ref="C35:G36"/>
     <mergeCell ref="N20:P25"/>
@@ -5238,6 +5218,28 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="E32:G33"/>
     <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H18:M20"/>
+    <mergeCell ref="N27:P29"/>
+    <mergeCell ref="N31:P33"/>
+    <mergeCell ref="C23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D9:P11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C2:P4"/>
+    <mergeCell ref="C5:P7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="C13:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>

--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -8,31 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D500C35-3DE6-4556-B41F-518AD9998D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E73D0B0-22A3-491B-84EC-67B52D0D45B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
     <sheet name="MRC" sheetId="2" r:id="rId2"/>
     <sheet name="MTC" sheetId="3" r:id="rId3"/>
+    <sheet name="PL" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MCC!$A$1:$N$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MRC!$A$1:$P$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">MTC!$A$1:$R$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Wild Capture Fishery (Complete Section 2)</t>
   </si>
@@ -376,6 +388,42 @@
   <si>
     <t>YFT</t>
   </si>
+  <si>
+    <t>Spice Isle Fish House</t>
+  </si>
+  <si>
+    <t>INTERNAL PACKING LIST</t>
+  </si>
+  <si>
+    <t>DATE:</t>
+  </si>
+  <si>
+    <t>AIRWAY:</t>
+  </si>
+  <si>
+    <t>FDA#10398004506 UFI#864724547</t>
+  </si>
+  <si>
+    <t>NAME:</t>
+  </si>
+  <si>
+    <t>SIGNATURE:</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>BOAT</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>BOX#:</t>
+  </si>
+  <si>
+    <t>TOTAL WEIGHT:</t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +433,7 @@
     <numFmt numFmtId="164" formatCode="#."/>
     <numFmt numFmtId="165" formatCode="000\ 0000\ 0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +596,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -563,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -725,12 +796,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -877,39 +1093,183 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -922,36 +1282,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -964,9 +1294,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -994,138 +1321,156 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1141,134 +1486,65 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,65 +1567,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2848,9 +3158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2888,7 +3198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2994,7 +3304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3136,7 +3446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3169,76 +3479,76 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="136"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="117" t="s">
+      <c r="L3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="118"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="2:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="119"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="140"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -3255,40 +3565,40 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="141" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="143"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="102"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="2:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3305,72 +3615,72 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="105" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="105" t="s">
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="67"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="71" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="124"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="141"/>
     </row>
     <row r="14" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3387,73 +3697,73 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="105" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="105" t="s">
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="124"/>
-      <c r="M16" s="125"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="126"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3470,61 +3780,61 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="98" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="66" t="s">
+      <c r="H20" s="136"/>
+      <c r="I20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="105" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="85" t="s">
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="94" t="s">
+      <c r="G22" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96" t="s">
+      <c r="H22" s="101"/>
+      <c r="I22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="97"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="2:13" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -3541,56 +3851,56 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="105" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="105" t="s">
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="85" t="s">
+      <c r="K25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -3607,186 +3917,186 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="105" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="105" t="s">
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
       <c r="H29" s="65"/>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="67"/>
+      <c r="J29" s="76"/>
       <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="108" t="s">
+      <c r="L29" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="109"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="14">
         <v>2</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="67"/>
+      <c r="J30" s="76"/>
       <c r="K30" s="14">
         <v>2</v>
       </c>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="14">
         <v>3</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="67"/>
+      <c r="J31" s="76"/>
       <c r="K31" s="14">
         <v>3</v>
       </c>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="14">
         <v>4</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="67"/>
+      <c r="J32" s="76"/>
       <c r="K32" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="83"/>
     </row>
     <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="67"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="83"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="113"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
@@ -3798,15 +4108,43 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G25:I26"/>
@@ -3823,43 +4161,15 @@
     <mergeCell ref="I20:J21"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:F12"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K25:M26"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{A1054A57-02A8-48E7-A2F7-37E5877CF9AC}"/>
@@ -3874,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6DE1E-C4D7-4581-B13B-2767FFCE0CBB}">
   <dimension ref="C1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21:H22"/>
     </sheetView>
   </sheetViews>
@@ -3900,67 +4210,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="167"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="170"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="162"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="173"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -3983,53 +4293,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146" t="s">
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="145"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="174"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4061,20 +4371,20 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="177" t="s">
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="178"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="162"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
       </c>
@@ -4084,54 +4394,54 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="148" t="s">
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="173">
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="187">
         <v>10398004506</v>
       </c>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="173"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="187"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="172" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="147"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="186"/>
       <c r="N17" s="46"/>
       <c r="O17" s="53" t="s">
         <v>47</v>
@@ -4144,11 +4454,11 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="119"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
       <c r="N18" s="47"/>
       <c r="O18" s="54" t="s">
         <v>36</v>
@@ -4156,21 +4466,21 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="179" t="s">
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
       <c r="O19" s="51" t="s">
         <v>44</v>
       </c>
@@ -4192,37 +4502,37 @@
     </row>
     <row r="21" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C21" s="24"/>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="192">
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="163">
         <v>1750102610</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="192"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="163"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
@@ -4237,24 +4547,24 @@
     </row>
     <row r="24" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="37"/>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="179" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="177" t="s">
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="178"/>
+      <c r="O24" s="162"/>
     </row>
     <row r="25" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
@@ -4271,60 +4581,60 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="187" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="188"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="190" t="s">
+      <c r="G26" s="156"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="183" t="s">
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="184"/>
+      <c r="O26" s="152"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="27"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="186"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="154"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="146" t="s">
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="144" t="s">
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="145"/>
+      <c r="O28" s="174"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
@@ -4335,11 +4645,11 @@
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="193"/>
       <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
@@ -4352,138 +4662,131 @@
       <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="153"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="196"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="147"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="186"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="193" t="s">
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="193"/>
-      <c r="N32" s="193"/>
-      <c r="O32" s="194"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="145"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="144" t="s">
+      <c r="D33" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="146" t="s">
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="144"/>
-      <c r="N33" s="145"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="174"/>
       <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C34" s="6"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="193"/>
-      <c r="N34" s="194"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
       <c r="O34" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="C3:O5"/>
     <mergeCell ref="D9:H9"/>
@@ -4499,15 +4802,22 @@
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:O32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O18" r:id="rId1" xr:uid="{A2E91466-F0FC-43F6-8FAF-6E85CC0BF087}"/>
@@ -4522,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G29"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4542,276 +4852,276 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="173"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="197" t="s">
+      <c r="C5" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="219"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="220"/>
+      <c r="P6" s="221"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="203"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="223"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="145"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="174"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="208" t="s">
+      <c r="C9" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="205"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="212"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="205"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="212"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="207"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="214"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="204" t="s">
+      <c r="C13" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="205"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="211"/>
+      <c r="P13" s="212"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="205"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="212"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="207"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="214"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="105" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="105" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
     </row>
     <row r="17" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -4821,350 +5131,350 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="147"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="186"/>
       <c r="N18" s="4"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="147"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="186"/>
       <c r="N19" s="4"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="211"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="197"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="105" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="211"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="197"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="211"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="197"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="210">
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="202">
         <v>10398004506</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="211"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="197"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="211"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="197"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="126"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="110"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="179" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="179" t="s">
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="117"/>
-      <c r="P26" s="118"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="210">
+      <c r="N27" s="202">
         <v>1750102610</v>
       </c>
-      <c r="O27" s="110"/>
-      <c r="P27" s="147"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="186"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="210"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="147"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="186"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="119"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="179" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="179" t="s">
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="210" t="s">
+      <c r="N31" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="110"/>
-      <c r="P31" s="147"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="186"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222"/>
-      <c r="E32" s="110" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="147"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="186"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="119"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="179" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="179" t="s">
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="117"/>
-      <c r="P34" s="118"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="100"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="210" t="s">
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="110"/>
-      <c r="P35" s="147"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="186"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="119"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="52"/>
@@ -5183,25 +5493,47 @@
       <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C2:P4"/>
+    <mergeCell ref="C5:P7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="C13:P15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D9:P11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H18:M20"/>
+    <mergeCell ref="N27:P29"/>
+    <mergeCell ref="N31:P33"/>
+    <mergeCell ref="C23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
     <mergeCell ref="H35:M36"/>
     <mergeCell ref="C35:G36"/>
     <mergeCell ref="N20:P25"/>
@@ -5218,31 +5550,1002 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="E32:G33"/>
     <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H18:M20"/>
-    <mergeCell ref="N27:P29"/>
-    <mergeCell ref="N31:P33"/>
-    <mergeCell ref="C23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D9:P11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C2:P4"/>
-    <mergeCell ref="C5:P7"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C12:P12"/>
-    <mergeCell ref="C13:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716F3994-7CCC-4770-87C1-0124A38DD6E1}">
+  <dimension ref="B1:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="234"/>
+    </row>
+    <row r="3" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="235" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="237"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="241" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="245" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="246"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="248"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="240" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="245" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="246"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="239"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="242" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="244"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="250" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="249" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="249" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="249" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="249" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="249" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="249" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="249" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="254" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="251">
+        <v>1</v>
+      </c>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="253">
+        <v>41</v>
+      </c>
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="229"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="251">
+        <v>2</v>
+      </c>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="253">
+        <v>42</v>
+      </c>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="229"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="251">
+        <v>3</v>
+      </c>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="253">
+        <v>43</v>
+      </c>
+      <c r="J10" s="226"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="226"/>
+      <c r="M10" s="226"/>
+      <c r="N10" s="229"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="251">
+        <v>4</v>
+      </c>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="253">
+        <v>44</v>
+      </c>
+      <c r="J11" s="226"/>
+      <c r="K11" s="226"/>
+      <c r="L11" s="226"/>
+      <c r="M11" s="226"/>
+      <c r="N11" s="229"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="251">
+        <v>5</v>
+      </c>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="253">
+        <v>45</v>
+      </c>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="229"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="251">
+        <v>6</v>
+      </c>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="253">
+        <v>46</v>
+      </c>
+      <c r="J13" s="226"/>
+      <c r="K13" s="226"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="229"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="251">
+        <v>7</v>
+      </c>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="253">
+        <v>47</v>
+      </c>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="229"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="251">
+        <v>8</v>
+      </c>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="253">
+        <v>48</v>
+      </c>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="229"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="251">
+        <v>9</v>
+      </c>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="253">
+        <v>49</v>
+      </c>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="229"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="251">
+        <v>10</v>
+      </c>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="253">
+        <v>50</v>
+      </c>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="229"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="251">
+        <v>11</v>
+      </c>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="253">
+        <v>51</v>
+      </c>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="229"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="251">
+        <v>12</v>
+      </c>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="253">
+        <v>52</v>
+      </c>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="226"/>
+      <c r="N19" s="229"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="251">
+        <v>13</v>
+      </c>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="253">
+        <v>53</v>
+      </c>
+      <c r="J20" s="226"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="229"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="251">
+        <v>14</v>
+      </c>
+      <c r="C21" s="226"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="253">
+        <v>54</v>
+      </c>
+      <c r="J21" s="226"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="226"/>
+      <c r="M21" s="226"/>
+      <c r="N21" s="229"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="251">
+        <v>15</v>
+      </c>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="253">
+        <v>55</v>
+      </c>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="229"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="251">
+        <v>16</v>
+      </c>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="253">
+        <v>56</v>
+      </c>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="226"/>
+      <c r="M23" s="226"/>
+      <c r="N23" s="229"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="251">
+        <v>17</v>
+      </c>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="253">
+        <v>57</v>
+      </c>
+      <c r="J24" s="226"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="226"/>
+      <c r="M24" s="226"/>
+      <c r="N24" s="229"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="251">
+        <v>18</v>
+      </c>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="253">
+        <v>58</v>
+      </c>
+      <c r="J25" s="226"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="226"/>
+      <c r="M25" s="226"/>
+      <c r="N25" s="229"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="251">
+        <v>19</v>
+      </c>
+      <c r="C26" s="226"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="253">
+        <v>59</v>
+      </c>
+      <c r="J26" s="226"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="226"/>
+      <c r="M26" s="226"/>
+      <c r="N26" s="229"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="251">
+        <v>20</v>
+      </c>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="253">
+        <v>60</v>
+      </c>
+      <c r="J27" s="226"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="229"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="251">
+        <v>21</v>
+      </c>
+      <c r="C28" s="226"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="253">
+        <v>61</v>
+      </c>
+      <c r="J28" s="226"/>
+      <c r="K28" s="226"/>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
+      <c r="N28" s="229"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="251">
+        <v>22</v>
+      </c>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="253">
+        <v>62</v>
+      </c>
+      <c r="J29" s="226"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="229"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="251">
+        <v>23</v>
+      </c>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="253">
+        <v>63</v>
+      </c>
+      <c r="J30" s="226"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="226"/>
+      <c r="M30" s="226"/>
+      <c r="N30" s="229"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="251">
+        <v>24</v>
+      </c>
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="253">
+        <v>64</v>
+      </c>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="229"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="251">
+        <v>25</v>
+      </c>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="253">
+        <v>65</v>
+      </c>
+      <c r="J32" s="226"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
+      <c r="N32" s="229"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="251">
+        <v>26</v>
+      </c>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="253">
+        <v>66</v>
+      </c>
+      <c r="J33" s="226"/>
+      <c r="K33" s="226"/>
+      <c r="L33" s="226"/>
+      <c r="M33" s="226"/>
+      <c r="N33" s="229"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="251">
+        <v>27</v>
+      </c>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="253">
+        <v>67</v>
+      </c>
+      <c r="J34" s="226"/>
+      <c r="K34" s="226"/>
+      <c r="L34" s="226"/>
+      <c r="M34" s="226"/>
+      <c r="N34" s="229"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="251">
+        <v>28</v>
+      </c>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="253">
+        <v>68</v>
+      </c>
+      <c r="J35" s="226"/>
+      <c r="K35" s="226"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="229"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="251">
+        <v>29</v>
+      </c>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="253">
+        <v>69</v>
+      </c>
+      <c r="J36" s="226"/>
+      <c r="K36" s="226"/>
+      <c r="L36" s="226"/>
+      <c r="M36" s="226"/>
+      <c r="N36" s="229"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="251">
+        <v>30</v>
+      </c>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="253">
+        <v>70</v>
+      </c>
+      <c r="J37" s="226"/>
+      <c r="K37" s="226"/>
+      <c r="L37" s="226"/>
+      <c r="M37" s="226"/>
+      <c r="N37" s="229"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="251">
+        <v>31</v>
+      </c>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="253">
+        <v>71</v>
+      </c>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
+      <c r="L38" s="226"/>
+      <c r="M38" s="226"/>
+      <c r="N38" s="229"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="251">
+        <v>32</v>
+      </c>
+      <c r="C39" s="226"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="226"/>
+      <c r="F39" s="226"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="226"/>
+      <c r="I39" s="253">
+        <v>72</v>
+      </c>
+      <c r="J39" s="226"/>
+      <c r="K39" s="226"/>
+      <c r="L39" s="226"/>
+      <c r="M39" s="226"/>
+      <c r="N39" s="229"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="251">
+        <v>33</v>
+      </c>
+      <c r="C40" s="226"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="253">
+        <v>73</v>
+      </c>
+      <c r="J40" s="226"/>
+      <c r="K40" s="226"/>
+      <c r="L40" s="226"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="229"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="251">
+        <v>34</v>
+      </c>
+      <c r="C41" s="226"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
+      <c r="H41" s="226"/>
+      <c r="I41" s="253">
+        <v>74</v>
+      </c>
+      <c r="J41" s="226"/>
+      <c r="K41" s="226"/>
+      <c r="L41" s="226"/>
+      <c r="M41" s="226"/>
+      <c r="N41" s="229"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="251">
+        <v>35</v>
+      </c>
+      <c r="C42" s="226"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="226"/>
+      <c r="G42" s="226"/>
+      <c r="H42" s="226"/>
+      <c r="I42" s="253">
+        <v>75</v>
+      </c>
+      <c r="J42" s="226"/>
+      <c r="K42" s="226"/>
+      <c r="L42" s="226"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="229"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="251">
+        <v>36</v>
+      </c>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="253">
+        <v>76</v>
+      </c>
+      <c r="J43" s="226"/>
+      <c r="K43" s="226"/>
+      <c r="L43" s="226"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="229"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="251">
+        <v>37</v>
+      </c>
+      <c r="C44" s="226"/>
+      <c r="D44" s="226"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="226"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="253">
+        <v>77</v>
+      </c>
+      <c r="J44" s="226"/>
+      <c r="K44" s="226"/>
+      <c r="L44" s="226"/>
+      <c r="M44" s="226"/>
+      <c r="N44" s="229"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="251">
+        <v>38</v>
+      </c>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="253">
+        <v>78</v>
+      </c>
+      <c r="J45" s="226"/>
+      <c r="K45" s="226"/>
+      <c r="L45" s="226"/>
+      <c r="M45" s="226"/>
+      <c r="N45" s="229"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="252">
+        <v>39</v>
+      </c>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="253">
+        <v>79</v>
+      </c>
+      <c r="J46" s="226"/>
+      <c r="K46" s="226"/>
+      <c r="L46" s="226"/>
+      <c r="M46" s="226"/>
+      <c r="N46" s="229"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="252">
+        <v>40</v>
+      </c>
+      <c r="C47" s="226"/>
+      <c r="D47" s="226"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="226"/>
+      <c r="I47" s="253">
+        <v>80</v>
+      </c>
+      <c r="J47" s="226"/>
+      <c r="K47" s="226"/>
+      <c r="L47" s="226"/>
+      <c r="M47" s="226"/>
+      <c r="N47" s="229"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="228"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="226"/>
+      <c r="J48" s="226"/>
+      <c r="K48" s="226"/>
+      <c r="L48" s="226"/>
+      <c r="M48" s="226"/>
+      <c r="N48" s="229"/>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="255">
+        <f>SUM(C8:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="255">
+        <f>SUM(F8:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="255">
+        <f>SUM(J8:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="256">
+        <f>SUM(M8:M47)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="224"/>
+      <c r="K50" s="225"/>
+      <c r="M50" s="258"/>
+      <c r="N50" s="259"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="260" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="261"/>
+      <c r="L51" s="257"/>
+      <c r="M51" s="262">
+        <f>SUM(C49,F49,J49,M49)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="263"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E73D0B0-22A3-491B-84EC-67B52D0D45B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4AD798-7DC8-42CB-BE4F-736A3AFB84CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="6450" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
     <sheet name="MRC" sheetId="2" r:id="rId2"/>
     <sheet name="MTC" sheetId="3" r:id="rId3"/>
-    <sheet name="PL" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MCC!$A$1:$N$37</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Wild Capture Fishery (Complete Section 2)</t>
   </si>
@@ -388,42 +387,6 @@
   <si>
     <t>YFT</t>
   </si>
-  <si>
-    <t>Spice Isle Fish House</t>
-  </si>
-  <si>
-    <t>INTERNAL PACKING LIST</t>
-  </si>
-  <si>
-    <t>DATE:</t>
-  </si>
-  <si>
-    <t>AIRWAY:</t>
-  </si>
-  <si>
-    <t>FDA#10398004506 UFI#864724547</t>
-  </si>
-  <si>
-    <t>NAME:</t>
-  </si>
-  <si>
-    <t>SIGNATURE:</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
-    <t>BOAT</t>
-  </si>
-  <si>
-    <t>GRADE</t>
-  </si>
-  <si>
-    <t>BOX#:</t>
-  </si>
-  <si>
-    <t>TOTAL WEIGHT:</t>
-  </si>
 </sst>
 </file>
 
@@ -433,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="#."/>
     <numFmt numFmtId="165" formatCode="000\ 0000\ 0000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,29 +559,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -634,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -796,157 +736,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1093,6 +888,207 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,215 +1113,161 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1339,151 +1281,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1501,9 +1338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1527,139 +1361,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3158,7 +2859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3446,7 +3147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3479,76 +3180,76 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="100"/>
+      <c r="M3" s="118"/>
     </row>
     <row r="4" spans="2:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="140"/>
     </row>
     <row r="6" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -3565,40 +3266,40 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="77" t="s">
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="81"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="143"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="139"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3615,72 +3316,72 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="74" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="74" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="111" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="124"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="141"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="104"/>
     </row>
     <row r="14" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3697,73 +3398,73 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="74" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="74" t="s">
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="107" t="s">
+      <c r="K16" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="125"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="110"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="126"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3780,61 +3481,61 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="135" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="75" t="s">
+      <c r="H20" s="99"/>
+      <c r="I20" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="74" t="s">
+      <c r="J20" s="67"/>
+      <c r="K20" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="88" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
     </row>
     <row r="22" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="132" t="s">
+      <c r="G22" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="101"/>
-      <c r="I22" s="133" t="s">
+      <c r="H22" s="95"/>
+      <c r="I22" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="134"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
     </row>
     <row r="23" spans="2:13" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -3851,56 +3552,56 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="74" t="s">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="74" t="s">
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="88" t="s">
+      <c r="K25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="93"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -3917,186 +3618,186 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="74" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="74" t="s">
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
     </row>
     <row r="29" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
       <c r="H29" s="65"/>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="76"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="83"/>
+      <c r="M29" s="109"/>
     </row>
     <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="14">
         <v>2</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="76"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="14">
         <v>2</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="83"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
     </row>
     <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="14">
         <v>3</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="76"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="14">
         <v>3</v>
       </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="83"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="109"/>
     </row>
     <row r="32" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="14">
         <v>4</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="76"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="82"/>
-      <c r="M32" s="83"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
     </row>
     <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="76"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="83"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="109"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="113"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
@@ -4108,6 +3809,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G25:I26"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K11:M12"/>
@@ -4124,52 +3871,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{A1054A57-02A8-48E7-A2F7-37E5877CF9AC}"/>
@@ -4210,67 +3911,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="167"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="170"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="159"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="173"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="162"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -4293,53 +3994,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="191" t="s">
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="174"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="145"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4371,20 +4072,20 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="175" t="s">
+      <c r="D14" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="161" t="s">
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="162"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="178"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
       </c>
@@ -4394,54 +4095,54 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="181" t="s">
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="187">
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="173">
         <v>10398004506</v>
       </c>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="187"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="173"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="185" t="s">
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="186"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="147"/>
       <c r="N17" s="46"/>
       <c r="O17" s="53" t="s">
         <v>47</v>
@@ -4454,11 +4155,11 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="47"/>
       <c r="O18" s="54" t="s">
         <v>36</v>
@@ -4466,21 +4167,21 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="160" t="s">
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
       <c r="O19" s="51" t="s">
         <v>44</v>
       </c>
@@ -4502,37 +4203,37 @@
     </row>
     <row r="21" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C21" s="24"/>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="163">
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="192">
         <v>1750102610</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="163"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="192"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
@@ -4547,24 +4248,24 @@
     </row>
     <row r="24" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="37"/>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="160" t="s">
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="161" t="s">
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="162"/>
+      <c r="O24" s="178"/>
     </row>
     <row r="25" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
@@ -4581,60 +4282,60 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="155" t="s">
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="156"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="158" t="s">
+      <c r="G26" s="188"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="151" t="s">
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="152"/>
+      <c r="O26" s="184"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="27"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="154"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="186"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="164" t="s">
+      <c r="D28" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="191" t="s">
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="164" t="s">
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="174"/>
+      <c r="O28" s="145"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
@@ -4645,11 +4346,11 @@
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="193"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="150"/>
       <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
@@ -4662,131 +4363,138 @@
       <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="195"/>
-      <c r="M30" s="196"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="153"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="186"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="147"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="144" t="s">
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="145"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="194"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="164" t="s">
+      <c r="D33" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="191" t="s">
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="164"/>
-      <c r="N33" s="174"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="145"/>
       <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C34" s="6"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="145"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="194"/>
       <c r="O34" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:O32"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="O21:O22"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="C3:O5"/>
     <mergeCell ref="D9:H9"/>
@@ -4802,22 +4510,15 @@
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:O32"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O18" r:id="rId1" xr:uid="{A2E91466-F0FC-43F6-8FAF-6E85CC0BF087}"/>
@@ -4832,7 +4533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32:G33"/>
     </sheetView>
   </sheetViews>
@@ -4852,276 +4553,276 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="173"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="217" t="s">
+      <c r="C5" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="219"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="199"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="221"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="201"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="222"/>
-      <c r="L7" s="222"/>
-      <c r="M7" s="222"/>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="223"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="203"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="174"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="145"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="212"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="205"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="212"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="205"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="213"/>
-      <c r="P11" s="214"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="207"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="118"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="205"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="212"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="205"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="213"/>
-      <c r="P15" s="214"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="206"/>
+      <c r="P15" s="207"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="74" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="74" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -5131,350 +4832,350 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="186"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="147"/>
       <c r="N18" s="4"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="186"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="147"/>
       <c r="N19" s="4"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="197"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="211"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="74" t="s">
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="197"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="211"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="197"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="211"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="202">
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="210">
         <v>10398004506</v>
       </c>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="197"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="211"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="197"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="211"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="110"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="126"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="160" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="160" t="s">
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="118"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="202">
+      <c r="N27" s="210">
         <v>1750102610</v>
       </c>
-      <c r="O27" s="120"/>
-      <c r="P27" s="186"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="147"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="186"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="147"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="119"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="160" t="s">
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="160" t="s">
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="118"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="202" t="s">
+      <c r="N31" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="120"/>
-      <c r="P31" s="186"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="147"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="120" t="s">
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="186"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="210"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="147"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="207"/>
-      <c r="L33" s="207"/>
-      <c r="M33" s="208"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="102"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="119"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="160" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="160" t="s">
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="99"/>
-      <c r="P34" s="100"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="118"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="197"/>
-      <c r="N35" s="202" t="s">
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="120"/>
-      <c r="P35" s="186"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="147"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="119"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="52"/>
@@ -5493,47 +5194,25 @@
       <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="142"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
-      <c r="O40" s="142"/>
-      <c r="P40" s="142"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C2:P4"/>
-    <mergeCell ref="C5:P7"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C12:P12"/>
-    <mergeCell ref="C13:P15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D9:P11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H18:M20"/>
-    <mergeCell ref="N27:P29"/>
-    <mergeCell ref="N31:P33"/>
-    <mergeCell ref="C23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
     <mergeCell ref="H35:M36"/>
     <mergeCell ref="C35:G36"/>
     <mergeCell ref="N20:P25"/>
@@ -5550,1002 +5229,31 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="E32:G33"/>
     <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H18:M20"/>
+    <mergeCell ref="N27:P29"/>
+    <mergeCell ref="N31:P33"/>
+    <mergeCell ref="C23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D9:P11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C2:P4"/>
+    <mergeCell ref="C5:P7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="C13:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716F3994-7CCC-4770-87C1-0124A38DD6E1}">
-  <dimension ref="B1:N51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="232" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="234"/>
-    </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="235" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="241" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="245" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="246"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="248"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="240" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="245" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="246"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="239"/>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="242" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="243"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="243"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="243"/>
-      <c r="N6" s="244"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="250" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="249" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="249" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="249" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="249" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="249" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="249" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="249" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="254" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="251">
-        <v>1</v>
-      </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="253">
-        <v>41</v>
-      </c>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="229"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="251">
-        <v>2</v>
-      </c>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="253">
-        <v>42</v>
-      </c>
-      <c r="J9" s="226"/>
-      <c r="K9" s="226"/>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="229"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="251">
-        <v>3</v>
-      </c>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="253">
-        <v>43</v>
-      </c>
-      <c r="J10" s="226"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="226"/>
-      <c r="M10" s="226"/>
-      <c r="N10" s="229"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="251">
-        <v>4</v>
-      </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="253">
-        <v>44</v>
-      </c>
-      <c r="J11" s="226"/>
-      <c r="K11" s="226"/>
-      <c r="L11" s="226"/>
-      <c r="M11" s="226"/>
-      <c r="N11" s="229"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="251">
-        <v>5</v>
-      </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="226"/>
-      <c r="I12" s="253">
-        <v>45</v>
-      </c>
-      <c r="J12" s="226"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="229"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="251">
-        <v>6</v>
-      </c>
-      <c r="C13" s="226"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="226"/>
-      <c r="I13" s="253">
-        <v>46</v>
-      </c>
-      <c r="J13" s="226"/>
-      <c r="K13" s="226"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="226"/>
-      <c r="N13" s="229"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="251">
-        <v>7</v>
-      </c>
-      <c r="C14" s="226"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="226"/>
-      <c r="I14" s="253">
-        <v>47</v>
-      </c>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="229"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="251">
-        <v>8</v>
-      </c>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="253">
-        <v>48</v>
-      </c>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="229"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="251">
-        <v>9</v>
-      </c>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="253">
-        <v>49</v>
-      </c>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="226"/>
-      <c r="N16" s="229"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="251">
-        <v>10</v>
-      </c>
-      <c r="C17" s="226"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="253">
-        <v>50</v>
-      </c>
-      <c r="J17" s="226"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="226"/>
-      <c r="N17" s="229"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="251">
-        <v>11</v>
-      </c>
-      <c r="C18" s="226"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="253">
-        <v>51</v>
-      </c>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="229"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="251">
-        <v>12</v>
-      </c>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="253">
-        <v>52</v>
-      </c>
-      <c r="J19" s="226"/>
-      <c r="K19" s="226"/>
-      <c r="L19" s="226"/>
-      <c r="M19" s="226"/>
-      <c r="N19" s="229"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="251">
-        <v>13</v>
-      </c>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="253">
-        <v>53</v>
-      </c>
-      <c r="J20" s="226"/>
-      <c r="K20" s="226"/>
-      <c r="L20" s="226"/>
-      <c r="M20" s="226"/>
-      <c r="N20" s="229"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="251">
-        <v>14</v>
-      </c>
-      <c r="C21" s="226"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="253">
-        <v>54</v>
-      </c>
-      <c r="J21" s="226"/>
-      <c r="K21" s="226"/>
-      <c r="L21" s="226"/>
-      <c r="M21" s="226"/>
-      <c r="N21" s="229"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="251">
-        <v>15</v>
-      </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="253">
-        <v>55</v>
-      </c>
-      <c r="J22" s="226"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="226"/>
-      <c r="M22" s="226"/>
-      <c r="N22" s="229"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="251">
-        <v>16</v>
-      </c>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="253">
-        <v>56</v>
-      </c>
-      <c r="J23" s="226"/>
-      <c r="K23" s="226"/>
-      <c r="L23" s="226"/>
-      <c r="M23" s="226"/>
-      <c r="N23" s="229"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="251">
-        <v>17</v>
-      </c>
-      <c r="C24" s="226"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="253">
-        <v>57</v>
-      </c>
-      <c r="J24" s="226"/>
-      <c r="K24" s="226"/>
-      <c r="L24" s="226"/>
-      <c r="M24" s="226"/>
-      <c r="N24" s="229"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="251">
-        <v>18</v>
-      </c>
-      <c r="C25" s="226"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="253">
-        <v>58</v>
-      </c>
-      <c r="J25" s="226"/>
-      <c r="K25" s="226"/>
-      <c r="L25" s="226"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="229"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="251">
-        <v>19</v>
-      </c>
-      <c r="C26" s="226"/>
-      <c r="D26" s="226"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="253">
-        <v>59</v>
-      </c>
-      <c r="J26" s="226"/>
-      <c r="K26" s="226"/>
-      <c r="L26" s="226"/>
-      <c r="M26" s="226"/>
-      <c r="N26" s="229"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="251">
-        <v>20</v>
-      </c>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="253">
-        <v>60</v>
-      </c>
-      <c r="J27" s="226"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="229"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="251">
-        <v>21</v>
-      </c>
-      <c r="C28" s="226"/>
-      <c r="D28" s="226"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="253">
-        <v>61</v>
-      </c>
-      <c r="J28" s="226"/>
-      <c r="K28" s="226"/>
-      <c r="L28" s="226"/>
-      <c r="M28" s="226"/>
-      <c r="N28" s="229"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="251">
-        <v>22</v>
-      </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="253">
-        <v>62</v>
-      </c>
-      <c r="J29" s="226"/>
-      <c r="K29" s="226"/>
-      <c r="L29" s="226"/>
-      <c r="M29" s="226"/>
-      <c r="N29" s="229"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="251">
-        <v>23</v>
-      </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="253">
-        <v>63</v>
-      </c>
-      <c r="J30" s="226"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="226"/>
-      <c r="M30" s="226"/>
-      <c r="N30" s="229"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="251">
-        <v>24</v>
-      </c>
-      <c r="C31" s="226"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="253">
-        <v>64</v>
-      </c>
-      <c r="J31" s="226"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="229"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="251">
-        <v>25</v>
-      </c>
-      <c r="C32" s="226"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="253">
-        <v>65</v>
-      </c>
-      <c r="J32" s="226"/>
-      <c r="K32" s="226"/>
-      <c r="L32" s="226"/>
-      <c r="M32" s="226"/>
-      <c r="N32" s="229"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="251">
-        <v>26</v>
-      </c>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="253">
-        <v>66</v>
-      </c>
-      <c r="J33" s="226"/>
-      <c r="K33" s="226"/>
-      <c r="L33" s="226"/>
-      <c r="M33" s="226"/>
-      <c r="N33" s="229"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="251">
-        <v>27</v>
-      </c>
-      <c r="C34" s="226"/>
-      <c r="D34" s="226"/>
-      <c r="E34" s="226"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
-      <c r="I34" s="253">
-        <v>67</v>
-      </c>
-      <c r="J34" s="226"/>
-      <c r="K34" s="226"/>
-      <c r="L34" s="226"/>
-      <c r="M34" s="226"/>
-      <c r="N34" s="229"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="251">
-        <v>28</v>
-      </c>
-      <c r="C35" s="226"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
-      <c r="H35" s="226"/>
-      <c r="I35" s="253">
-        <v>68</v>
-      </c>
-      <c r="J35" s="226"/>
-      <c r="K35" s="226"/>
-      <c r="L35" s="226"/>
-      <c r="M35" s="226"/>
-      <c r="N35" s="229"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="251">
-        <v>29</v>
-      </c>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="253">
-        <v>69</v>
-      </c>
-      <c r="J36" s="226"/>
-      <c r="K36" s="226"/>
-      <c r="L36" s="226"/>
-      <c r="M36" s="226"/>
-      <c r="N36" s="229"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="251">
-        <v>30</v>
-      </c>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="226"/>
-      <c r="G37" s="226"/>
-      <c r="H37" s="226"/>
-      <c r="I37" s="253">
-        <v>70</v>
-      </c>
-      <c r="J37" s="226"/>
-      <c r="K37" s="226"/>
-      <c r="L37" s="226"/>
-      <c r="M37" s="226"/>
-      <c r="N37" s="229"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="251">
-        <v>31</v>
-      </c>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
-      <c r="E38" s="226"/>
-      <c r="F38" s="226"/>
-      <c r="G38" s="226"/>
-      <c r="H38" s="226"/>
-      <c r="I38" s="253">
-        <v>71</v>
-      </c>
-      <c r="J38" s="226"/>
-      <c r="K38" s="226"/>
-      <c r="L38" s="226"/>
-      <c r="M38" s="226"/>
-      <c r="N38" s="229"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="251">
-        <v>32</v>
-      </c>
-      <c r="C39" s="226"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="226"/>
-      <c r="F39" s="226"/>
-      <c r="G39" s="226"/>
-      <c r="H39" s="226"/>
-      <c r="I39" s="253">
-        <v>72</v>
-      </c>
-      <c r="J39" s="226"/>
-      <c r="K39" s="226"/>
-      <c r="L39" s="226"/>
-      <c r="M39" s="226"/>
-      <c r="N39" s="229"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="251">
-        <v>33</v>
-      </c>
-      <c r="C40" s="226"/>
-      <c r="D40" s="226"/>
-      <c r="E40" s="226"/>
-      <c r="F40" s="226"/>
-      <c r="G40" s="226"/>
-      <c r="H40" s="226"/>
-      <c r="I40" s="253">
-        <v>73</v>
-      </c>
-      <c r="J40" s="226"/>
-      <c r="K40" s="226"/>
-      <c r="L40" s="226"/>
-      <c r="M40" s="226"/>
-      <c r="N40" s="229"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="251">
-        <v>34</v>
-      </c>
-      <c r="C41" s="226"/>
-      <c r="D41" s="226"/>
-      <c r="E41" s="226"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="226"/>
-      <c r="H41" s="226"/>
-      <c r="I41" s="253">
-        <v>74</v>
-      </c>
-      <c r="J41" s="226"/>
-      <c r="K41" s="226"/>
-      <c r="L41" s="226"/>
-      <c r="M41" s="226"/>
-      <c r="N41" s="229"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="251">
-        <v>35</v>
-      </c>
-      <c r="C42" s="226"/>
-      <c r="D42" s="226"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
-      <c r="H42" s="226"/>
-      <c r="I42" s="253">
-        <v>75</v>
-      </c>
-      <c r="J42" s="226"/>
-      <c r="K42" s="226"/>
-      <c r="L42" s="226"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="229"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="251">
-        <v>36</v>
-      </c>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="226"/>
-      <c r="G43" s="226"/>
-      <c r="H43" s="226"/>
-      <c r="I43" s="253">
-        <v>76</v>
-      </c>
-      <c r="J43" s="226"/>
-      <c r="K43" s="226"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="229"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="251">
-        <v>37</v>
-      </c>
-      <c r="C44" s="226"/>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226"/>
-      <c r="F44" s="226"/>
-      <c r="G44" s="226"/>
-      <c r="H44" s="226"/>
-      <c r="I44" s="253">
-        <v>77</v>
-      </c>
-      <c r="J44" s="226"/>
-      <c r="K44" s="226"/>
-      <c r="L44" s="226"/>
-      <c r="M44" s="226"/>
-      <c r="N44" s="229"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="251">
-        <v>38</v>
-      </c>
-      <c r="C45" s="226"/>
-      <c r="D45" s="226"/>
-      <c r="E45" s="226"/>
-      <c r="F45" s="226"/>
-      <c r="G45" s="226"/>
-      <c r="H45" s="226"/>
-      <c r="I45" s="253">
-        <v>78</v>
-      </c>
-      <c r="J45" s="226"/>
-      <c r="K45" s="226"/>
-      <c r="L45" s="226"/>
-      <c r="M45" s="226"/>
-      <c r="N45" s="229"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="252">
-        <v>39</v>
-      </c>
-      <c r="C46" s="226"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="226"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="226"/>
-      <c r="I46" s="253">
-        <v>79</v>
-      </c>
-      <c r="J46" s="226"/>
-      <c r="K46" s="226"/>
-      <c r="L46" s="226"/>
-      <c r="M46" s="226"/>
-      <c r="N46" s="229"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="252">
-        <v>40</v>
-      </c>
-      <c r="C47" s="226"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="226"/>
-      <c r="I47" s="253">
-        <v>80</v>
-      </c>
-      <c r="J47" s="226"/>
-      <c r="K47" s="226"/>
-      <c r="L47" s="226"/>
-      <c r="M47" s="226"/>
-      <c r="N47" s="229"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="228"/>
-      <c r="C48" s="226"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="226"/>
-      <c r="H48" s="226"/>
-      <c r="I48" s="226"/>
-      <c r="J48" s="226"/>
-      <c r="K48" s="226"/>
-      <c r="L48" s="226"/>
-      <c r="M48" s="226"/>
-      <c r="N48" s="229"/>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-      <c r="C49" s="255">
-        <f>SUM(C8:C47)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="255">
-        <f>SUM(F8:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="255">
-        <f>SUM(J8:J47)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="256">
-        <f>SUM(M8:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="224"/>
-      <c r="K50" s="225"/>
-      <c r="M50" s="258"/>
-      <c r="N50" s="259"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J51" s="260" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" s="261"/>
-      <c r="L51" s="257"/>
-      <c r="M51" s="262">
-        <f>SUM(C49,F49,J49,M49)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="263"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
+++ b/Sifh.ReportGenerator/Excel Templates/Templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\source\repos\brendongreene\Sifh.ReportGenerator\Sifh.ReportGenerator\Excel Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4AD798-7DC8-42CB-BE4F-736A3AFB84CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539A8D2-C72D-4F30-8F67-CFC81A843C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{997B08C3-0059-4A02-89AB-DD06527C47E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -888,39 +888,183 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -933,36 +1077,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -975,9 +1089,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1005,138 +1116,156 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1152,134 +1281,65 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,65 +1362,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3160,8 +3169,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,76 +3189,76 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="136"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="117" t="s">
+      <c r="L3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="118"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="2:13" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="119"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="140"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -3266,40 +3275,40 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="141" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="143"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="102"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="2:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -3316,72 +3325,72 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="105" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="105" t="s">
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="67"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="71" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="124"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="141"/>
     </row>
     <row r="14" spans="2:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3398,73 +3407,73 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="105" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="105" t="s">
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="124"/>
-      <c r="M16" s="125"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="126"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3481,61 +3490,61 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="98" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="66" t="s">
+      <c r="H20" s="136"/>
+      <c r="I20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="105" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="85" t="s">
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="94" t="s">
+      <c r="G22" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96" t="s">
+      <c r="H22" s="101"/>
+      <c r="I22" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="97"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="2:13" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -3552,56 +3561,56 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="105" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="105" t="s">
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="81" t="s">
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="85" t="s">
+      <c r="G25" s="84"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -3618,186 +3627,186 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="105" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="105" t="s">
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
       <c r="H29" s="65"/>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="67"/>
+      <c r="J29" s="76"/>
       <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="108" t="s">
+      <c r="L29" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="109"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="14">
         <v>2</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="67"/>
+      <c r="J30" s="76"/>
       <c r="K30" s="14">
         <v>2</v>
       </c>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="14">
         <v>3</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="67"/>
+      <c r="J31" s="76"/>
       <c r="K31" s="14">
         <v>3</v>
       </c>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="14">
         <v>4</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="67"/>
+      <c r="J32" s="76"/>
       <c r="K32" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="83"/>
     </row>
     <row r="33" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="67"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="10">
         <v>5</v>
       </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="83"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="113"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
@@ -3809,36 +3818,22 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="K21:M22"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="A35:M35"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="C33:F33"/>
@@ -3855,22 +3850,36 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K25:M26"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I22" r:id="rId1" xr:uid="{A1054A57-02A8-48E7-A2F7-37E5877CF9AC}"/>
@@ -3911,67 +3920,67 @@
     <row r="1" spans="3:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="167"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="170"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="162"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="173"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -3994,53 +4003,53 @@
     </row>
     <row r="9" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="35"/>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146" t="s">
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="145"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="174"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="3:15" ht="33.75" x14ac:dyDescent="0.25">
@@ -4072,20 +4081,20 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="45"/>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="177" t="s">
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="178"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="162"/>
       <c r="N14" s="33" t="s">
         <v>58</v>
       </c>
@@ -4095,54 +4104,54 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="148" t="s">
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="173">
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="187">
         <v>10398004506</v>
       </c>
       <c r="O15" s="57"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="173"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="187"/>
       <c r="O16" s="49"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="46"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="172" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="147"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="186"/>
       <c r="N17" s="46"/>
       <c r="O17" s="53" t="s">
         <v>47</v>
@@ -4155,11 +4164,11 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="119"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
       <c r="N18" s="47"/>
       <c r="O18" s="54" t="s">
         <v>36</v>
@@ -4167,21 +4176,21 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="179" t="s">
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
       <c r="O19" s="51" t="s">
         <v>44</v>
       </c>
@@ -4203,37 +4212,37 @@
     </row>
     <row r="21" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C21" s="24"/>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="192">
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="163">
         <v>1750102610</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C22" s="24"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="192"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="163"/>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
@@ -4248,24 +4257,24 @@
     </row>
     <row r="24" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="37"/>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="179" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="177" t="s">
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="178"/>
+      <c r="O24" s="162"/>
     </row>
     <row r="25" spans="3:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
@@ -4282,60 +4291,60 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="187" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="188"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="190" t="s">
+      <c r="G26" s="156"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="183" t="s">
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="184"/>
+      <c r="O26" s="152"/>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="27"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="186"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="154"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="38"/>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="146" t="s">
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="144" t="s">
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="145"/>
+      <c r="O28" s="174"/>
     </row>
     <row r="29" spans="3:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
@@ -4346,11 +4355,11 @@
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="193"/>
       <c r="N29" s="63" t="s">
         <v>27</v>
       </c>
@@ -4363,138 +4372,131 @@
       <c r="F30" s="60"/>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="153"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="196"/>
       <c r="N30" s="41"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="147"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="186"/>
     </row>
     <row r="32" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C32" s="13"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="193" t="s">
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="193"/>
-      <c r="N32" s="193"/>
-      <c r="O32" s="194"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="145"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
-      <c r="D33" s="144" t="s">
+      <c r="D33" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="146" t="s">
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="144"/>
-      <c r="N33" s="145"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="174"/>
       <c r="O33" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C34" s="6"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="193"/>
-      <c r="N34" s="194"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
       <c r="O34" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="C3:O5"/>
     <mergeCell ref="D9:H9"/>
@@ -4510,15 +4512,22 @@
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="I19:N19"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:O32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O18" r:id="rId1" xr:uid="{A2E91466-F0FC-43F6-8FAF-6E85CC0BF087}"/>
@@ -4533,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910156E5-166D-4067-94E6-30C47C096607}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32:G33"/>
     </sheetView>
   </sheetViews>
@@ -4553,276 +4562,276 @@
     <row r="1" spans="2:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="173"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="197" t="s">
+      <c r="C5" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="219"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="220"/>
+      <c r="P6" s="221"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="203"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="223"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="145"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="174"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="208" t="s">
+      <c r="C9" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="205"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="212"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="205"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="212"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="207"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="214"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="204" t="s">
+      <c r="C13" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="205"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="211"/>
+      <c r="P13" s="212"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="205"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="212"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="207"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="214"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="105" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="105" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
     </row>
     <row r="17" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -4832,350 +4841,350 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="147"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="186"/>
       <c r="N18" s="4"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="147"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="186"/>
       <c r="N19" s="4"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="211"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="197"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="105" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="211"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="197"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="211"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="197"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="210">
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="202">
         <v>10398004506</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="211"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="197"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="211"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="197"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="126"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="110"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="179" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="179" t="s">
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="117"/>
-      <c r="P26" s="118"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="210">
+      <c r="N27" s="202">
         <v>1750102610</v>
       </c>
-      <c r="O27" s="110"/>
-      <c r="P27" s="147"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="186"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="210"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="147"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="186"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="119"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="179" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="179" t="s">
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="G31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="210" t="s">
+      <c r="N31" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="110"/>
-      <c r="P31" s="147"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="186"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222"/>
-      <c r="E32" s="110" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="147"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="186"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="119"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="102"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="179" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="179" t="s">
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="117"/>
-      <c r="P34" s="118"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="100"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="210" t="s">
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="110"/>
-      <c r="P35" s="147"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="186"/>
     </row>
     <row r="36" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="119"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="52"/>
@@ -5194,25 +5203,47 @@
       <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C2:P4"/>
+    <mergeCell ref="C5:P7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="C13:P15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="D9:P11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C18:G20"/>
+    <mergeCell ref="H18:M20"/>
+    <mergeCell ref="N27:P29"/>
+    <mergeCell ref="N31:P33"/>
+    <mergeCell ref="C23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
     <mergeCell ref="H35:M36"/>
     <mergeCell ref="C35:G36"/>
     <mergeCell ref="N20:P25"/>
@@ -5229,28 +5260,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="E32:G33"/>
     <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C18:G20"/>
-    <mergeCell ref="H18:M20"/>
-    <mergeCell ref="N27:P29"/>
-    <mergeCell ref="N31:P33"/>
-    <mergeCell ref="C23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C28:G29"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="D9:P11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C2:P4"/>
-    <mergeCell ref="C5:P7"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C12:P12"/>
-    <mergeCell ref="C13:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
